--- a/Code/Results/Cases/Case_9_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8406572798335219</v>
+        <v>0.830069331323358</v>
       </c>
       <c r="C2">
-        <v>0.1487186734671013</v>
+        <v>0.1517024592808554</v>
       </c>
       <c r="D2">
-        <v>0.1784391546895847</v>
+        <v>0.1854111334760518</v>
       </c>
       <c r="E2">
-        <v>0.1189725924712661</v>
+        <v>0.1210592239054193</v>
       </c>
       <c r="F2">
-        <v>0.6789437861524945</v>
+        <v>0.6426045591208265</v>
       </c>
       <c r="G2">
-        <v>0.3902902854315542</v>
+        <v>0.3452095312971082</v>
       </c>
       <c r="H2">
-        <v>0.003641506692849461</v>
+        <v>0.003133223111014827</v>
       </c>
       <c r="I2">
-        <v>0.004610746816128053</v>
+        <v>0.003187573367506857</v>
       </c>
       <c r="J2">
-        <v>0.3540662100817542</v>
+        <v>0.3569948920090482</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.116883659381088</v>
+        <v>0.1529583426087999</v>
       </c>
       <c r="M2">
-        <v>0.8851358471358139</v>
+        <v>0.09164381758769657</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1168720965764081</v>
       </c>
       <c r="O2">
-        <v>0.318629668393605</v>
+        <v>0.9056286517723038</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.515228966739897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3249715490619138</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.407029388962968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7329709746504705</v>
+        <v>0.7268815907190174</v>
       </c>
       <c r="C3">
-        <v>0.1367989598178951</v>
+        <v>0.1346906011209512</v>
       </c>
       <c r="D3">
-        <v>0.1590519011269436</v>
+        <v>0.1650775098941608</v>
       </c>
       <c r="E3">
-        <v>0.1080902236428933</v>
+        <v>0.1102240666376808</v>
       </c>
       <c r="F3">
-        <v>0.6612498756153755</v>
+        <v>0.6286983053733763</v>
       </c>
       <c r="G3">
-        <v>0.3850917685106054</v>
+        <v>0.3441268970550837</v>
       </c>
       <c r="H3">
-        <v>0.00525434930991775</v>
+        <v>0.004568173745125026</v>
       </c>
       <c r="I3">
-        <v>0.006152738197540586</v>
+        <v>0.004271546256416237</v>
       </c>
       <c r="J3">
-        <v>0.3558440779204162</v>
+        <v>0.3573596339421456</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1079486772332388</v>
+        <v>0.1583483123336649</v>
       </c>
       <c r="M3">
-        <v>0.776371273808536</v>
+        <v>0.09277892100341667</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1084375755791172</v>
       </c>
       <c r="O3">
-        <v>0.2779824125243948</v>
+        <v>0.7926255403322386</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.507656331456417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2830259545099878</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.407816841532224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.66656033159461</v>
+        <v>0.6631345802303485</v>
       </c>
       <c r="C4">
-        <v>0.1295993536010656</v>
+        <v>0.1244751929891805</v>
       </c>
       <c r="D4">
-        <v>0.1472072966478208</v>
+        <v>0.1526741241327159</v>
       </c>
       <c r="E4">
-        <v>0.1014056106261734</v>
+        <v>0.103572026897691</v>
       </c>
       <c r="F4">
-        <v>0.6507954407028933</v>
+        <v>0.6204703429459713</v>
       </c>
       <c r="G4">
-        <v>0.382222638626935</v>
+        <v>0.343793335860326</v>
       </c>
       <c r="H4">
-        <v>0.006436331804201223</v>
+        <v>0.005623966841645511</v>
       </c>
       <c r="I4">
-        <v>0.007291987334276051</v>
+        <v>0.005096562280983985</v>
       </c>
       <c r="J4">
-        <v>0.3571650785525549</v>
+        <v>0.3576530316247002</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1024213155274936</v>
+        <v>0.1617979797222979</v>
       </c>
       <c r="M4">
-        <v>0.7095869110911792</v>
+        <v>0.09396156559205071</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1032143067076845</v>
       </c>
       <c r="O4">
-        <v>0.2530526638137083</v>
+        <v>0.7232933953925738</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.504164052241023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2573123488159759</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.409178032332491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6390207952051128</v>
+        <v>0.6366720627272286</v>
       </c>
       <c r="C5">
-        <v>0.1270656650101927</v>
+        <v>0.1207650832484148</v>
       </c>
       <c r="D5">
-        <v>0.1424984075544984</v>
+        <v>0.1477408320220519</v>
       </c>
       <c r="E5">
-        <v>0.09868831270256706</v>
+        <v>0.1008687017353402</v>
       </c>
       <c r="F5">
-        <v>0.6461057075634855</v>
+        <v>0.6166945682627798</v>
       </c>
       <c r="G5">
-        <v>0.3806935808229497</v>
+        <v>0.3433362495365913</v>
       </c>
       <c r="H5">
-        <v>0.006966562193306075</v>
+        <v>0.006098437922451572</v>
       </c>
       <c r="I5">
-        <v>0.007884217604038568</v>
+        <v>0.005564090132838651</v>
       </c>
       <c r="J5">
-        <v>0.3575285698908317</v>
+        <v>0.3575660843013964</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1001221370859504</v>
+        <v>0.1630619120493684</v>
       </c>
       <c r="M5">
-        <v>0.6827492320376933</v>
+        <v>0.09449130226195201</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1010397174561781</v>
       </c>
       <c r="O5">
-        <v>0.2430150303069816</v>
+        <v>0.6954227400874231</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.501609964196859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2469557141352858</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.408633364792877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6339514580907917</v>
+        <v>0.6317992964005441</v>
       </c>
       <c r="C6">
-        <v>0.1271045458613003</v>
+        <v>0.1206413144540051</v>
       </c>
       <c r="D6">
-        <v>0.141844953213706</v>
+        <v>0.1470475978946268</v>
       </c>
       <c r="E6">
-        <v>0.09824694649703147</v>
+        <v>0.1004293972823369</v>
       </c>
       <c r="F6">
-        <v>0.6446863841657944</v>
+        <v>0.6154638445384535</v>
       </c>
       <c r="G6">
-        <v>0.3799093309298414</v>
+        <v>0.3427757218179863</v>
       </c>
       <c r="H6">
-        <v>0.007059984220740778</v>
+        <v>0.006182067961137849</v>
       </c>
       <c r="I6">
-        <v>0.00809203375262868</v>
+        <v>0.005766105450116576</v>
       </c>
       <c r="J6">
-        <v>0.3573097821337754</v>
+        <v>0.3572795959119048</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.09969589228323983</v>
+        <v>0.1630588572228788</v>
       </c>
       <c r="M6">
-        <v>0.6787615184127418</v>
+        <v>0.09449593282556457</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1006358304092991</v>
       </c>
       <c r="O6">
-        <v>0.2414911140567</v>
+        <v>0.6912532189302709</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.499476734903908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2453752225777066</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.406953523674673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.664841274294929</v>
+        <v>0.6615195298267906</v>
       </c>
       <c r="C7">
-        <v>0.1308184242930963</v>
+        <v>0.1256732429410192</v>
       </c>
       <c r="D7">
-        <v>0.147492885541638</v>
+        <v>0.1531633370936447</v>
       </c>
       <c r="E7">
-        <v>0.1013963492050536</v>
+        <v>0.103596381453066</v>
       </c>
       <c r="F7">
-        <v>0.64896853436192</v>
+        <v>0.6178538528500965</v>
       </c>
       <c r="G7">
-        <v>0.3807426001808381</v>
+        <v>0.3444733484900055</v>
       </c>
       <c r="H7">
-        <v>0.006449967275163393</v>
+        <v>0.005640568731287765</v>
       </c>
       <c r="I7">
-        <v>0.007574899476417762</v>
+        <v>0.005422652254705618</v>
       </c>
       <c r="J7">
-        <v>0.3564004798843214</v>
+        <v>0.3535789978855988</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1022709580927597</v>
+        <v>0.1610387022268469</v>
       </c>
       <c r="M7">
-        <v>0.7105104896874934</v>
+        <v>0.09360893876135279</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1030265818792593</v>
       </c>
       <c r="O7">
-        <v>0.2533074110411633</v>
+        <v>0.7240522464993546</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.499423994987055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2575868370255456</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.402415326300343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8017841909860124</v>
+        <v>0.7929646975703406</v>
       </c>
       <c r="C8">
-        <v>0.1462619227988</v>
+        <v>0.1472925694293679</v>
       </c>
       <c r="D8">
-        <v>0.1722058846969077</v>
+        <v>0.1795576480962353</v>
       </c>
       <c r="E8">
-        <v>0.1152577652078079</v>
+        <v>0.1174758250497163</v>
       </c>
       <c r="F8">
-        <v>0.6704352229270256</v>
+        <v>0.6325832642178923</v>
       </c>
       <c r="G8">
-        <v>0.3865104020902095</v>
+        <v>0.3497775243062975</v>
       </c>
       <c r="H8">
-        <v>0.004163374621532545</v>
+        <v>0.003607473684534956</v>
       </c>
       <c r="I8">
-        <v>0.005431683682080468</v>
+        <v>0.003920737159301524</v>
       </c>
       <c r="J8">
-        <v>0.3536242984798719</v>
+        <v>0.3453959620923612</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1136540219740283</v>
+        <v>0.1535167814083458</v>
       </c>
       <c r="M8">
-        <v>0.8493511688733406</v>
+        <v>0.09115078868872217</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1136797519218433</v>
       </c>
       <c r="O8">
-        <v>0.3051270717111265</v>
+        <v>0.8679324488431632</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.506196880411068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3111195242614002</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.393593979713842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.070562501167586</v>
+        <v>1.049908860451126</v>
       </c>
       <c r="C9">
-        <v>0.1753100559393204</v>
+        <v>0.1894917641654672</v>
       </c>
       <c r="D9">
-        <v>0.2205684451384258</v>
+        <v>0.2306239444934022</v>
       </c>
       <c r="E9">
-        <v>0.1423991807758576</v>
+        <v>0.1445546956838371</v>
       </c>
       <c r="F9">
-        <v>0.7190906145143998</v>
+        <v>0.6703095711032461</v>
       </c>
       <c r="G9">
-        <v>0.4031214031014585</v>
+        <v>0.3579029751676899</v>
       </c>
       <c r="H9">
-        <v>0.00127573925053337</v>
+        <v>0.001058646781560424</v>
       </c>
       <c r="I9">
-        <v>0.002420621662766465</v>
+        <v>0.001804939832892316</v>
       </c>
       <c r="J9">
-        <v>0.3514173485622081</v>
+        <v>0.3429137574979535</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1358875831604678</v>
+        <v>0.1415165314406561</v>
       </c>
       <c r="M9">
-        <v>1.119505721491066</v>
+        <v>0.09111969418666277</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1346025462836593</v>
       </c>
       <c r="O9">
-        <v>0.4063601726054742</v>
+        <v>1.14885963810957</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.537436790889828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.415700415067505</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.399977592591512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.26819819910645</v>
+        <v>1.239060200551393</v>
       </c>
       <c r="C10">
-        <v>0.1983350452342449</v>
+        <v>0.2217657259888028</v>
       </c>
       <c r="D10">
-        <v>0.2513648555500652</v>
+        <v>0.2645368922009368</v>
       </c>
       <c r="E10">
-        <v>0.1559336049641686</v>
+        <v>0.158220141557269</v>
       </c>
       <c r="F10">
-        <v>0.7451444896748214</v>
+        <v>0.6839755616149006</v>
       </c>
       <c r="G10">
-        <v>0.4102650408249957</v>
+        <v>0.3719639968374793</v>
       </c>
       <c r="H10">
-        <v>0.0004812315599793671</v>
+        <v>0.0004115087270704088</v>
       </c>
       <c r="I10">
-        <v>0.001456638899684393</v>
+        <v>0.001328416791033682</v>
       </c>
       <c r="J10">
-        <v>0.3474886567933595</v>
+        <v>0.3214201229691227</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1443419467289004</v>
+        <v>0.1315355263282232</v>
       </c>
       <c r="M10">
-        <v>1.321504474524971</v>
+        <v>0.09129605310190136</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1419886638297072</v>
       </c>
       <c r="O10">
-        <v>0.4730411247348556</v>
+        <v>1.357765319094028</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.544793241700646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4848198339147345</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.377802336004805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.373847289631414</v>
+        <v>1.345800287639946</v>
       </c>
       <c r="C11">
-        <v>0.213727202121575</v>
+        <v>0.2361800019975533</v>
       </c>
       <c r="D11">
-        <v>0.2212352179040948</v>
+        <v>0.2355051121292036</v>
       </c>
       <c r="E11">
-        <v>0.1117288642987546</v>
+        <v>0.1139031043232777</v>
       </c>
       <c r="F11">
-        <v>0.6612636451228724</v>
+        <v>0.5975082197117985</v>
       </c>
       <c r="G11">
-        <v>0.3598938185533527</v>
+        <v>0.3510834940482042</v>
       </c>
       <c r="H11">
-        <v>0.0190828078274734</v>
+        <v>0.01902466458536978</v>
       </c>
       <c r="I11">
-        <v>0.001773768664468989</v>
+        <v>0.001864177943574852</v>
       </c>
       <c r="J11">
-        <v>0.3182700975549579</v>
+        <v>0.2700301378362582</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09345446262470247</v>
+        <v>0.1185115147873255</v>
       </c>
       <c r="M11">
-        <v>1.437000170984277</v>
+        <v>0.08039792872685325</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09165407278262805</v>
       </c>
       <c r="O11">
-        <v>0.4339995099001541</v>
+        <v>1.470774794298649</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.377000321515837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4449674261475565</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.205291133817354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.424386862624061</v>
+        <v>1.399058692417071</v>
       </c>
       <c r="C12">
-        <v>0.2199643964722071</v>
+        <v>0.2394631514453351</v>
       </c>
       <c r="D12">
-        <v>0.1906295623514751</v>
+        <v>0.2042500599646928</v>
       </c>
       <c r="E12">
-        <v>0.07931365701438153</v>
+        <v>0.08116691521163943</v>
       </c>
       <c r="F12">
-        <v>0.5915513369234802</v>
+        <v>0.5315715702996258</v>
       </c>
       <c r="G12">
-        <v>0.3203967471316247</v>
+        <v>0.3251113110316126</v>
       </c>
       <c r="H12">
-        <v>0.05784706583720123</v>
+        <v>0.05778616348113275</v>
       </c>
       <c r="I12">
-        <v>0.001728669848717779</v>
+        <v>0.001842458916780032</v>
       </c>
       <c r="J12">
-        <v>0.2965624282680608</v>
+        <v>0.2471985793396989</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06521182672962844</v>
+        <v>0.1116181657271209</v>
       </c>
       <c r="M12">
-        <v>1.490642792814242</v>
+        <v>0.07270091209985097</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06423409595668517</v>
       </c>
       <c r="O12">
-        <v>0.3881790127504701</v>
+        <v>1.521085284410219</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.247871963568954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.397887478004165</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.086843683974664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.43280517149114</v>
+        <v>1.411600148612337</v>
       </c>
       <c r="C13">
-        <v>0.2214541578406539</v>
+        <v>0.2368434626960578</v>
       </c>
       <c r="D13">
-        <v>0.1586051227791785</v>
+        <v>0.169950024356055</v>
       </c>
       <c r="E13">
-        <v>0.05419152556184237</v>
+        <v>0.05559540111690708</v>
       </c>
       <c r="F13">
-        <v>0.5259203294062544</v>
+        <v>0.4757238925325922</v>
       </c>
       <c r="G13">
-        <v>0.2845860635234772</v>
+        <v>0.2878738119757998</v>
       </c>
       <c r="H13">
-        <v>0.1137590025377335</v>
+        <v>0.1136784844588874</v>
       </c>
       <c r="I13">
-        <v>0.00175968954765171</v>
+        <v>0.001828578083888921</v>
       </c>
       <c r="J13">
-        <v>0.2780853003050296</v>
+        <v>0.2404064316266492</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.05239687154325967</v>
+        <v>0.1077696565624802</v>
       </c>
       <c r="M13">
-        <v>1.501301055177009</v>
+        <v>0.0667607850705032</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05236486667722873</v>
       </c>
       <c r="O13">
-        <v>0.3354378189262448</v>
+        <v>1.527876029285267</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.133236844403896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3434248972942697</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9976620998743897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.419143241124829</v>
+        <v>1.40147339708426</v>
       </c>
       <c r="C14">
-        <v>0.2207777178180379</v>
+        <v>0.2327931299379884</v>
       </c>
       <c r="D14">
-        <v>0.1360921867305365</v>
+        <v>0.1453182223089868</v>
       </c>
       <c r="E14">
-        <v>0.04106042526884401</v>
+        <v>0.04216484555267641</v>
       </c>
       <c r="F14">
-        <v>0.4822894436188889</v>
+        <v>0.4408496077639157</v>
       </c>
       <c r="G14">
-        <v>0.2613386108000881</v>
+        <v>0.2584235334589877</v>
       </c>
       <c r="H14">
-        <v>0.1632577010757217</v>
+        <v>0.1631528944363794</v>
       </c>
       <c r="I14">
-        <v>0.001911819490705291</v>
+        <v>0.001929889827715137</v>
       </c>
       <c r="J14">
-        <v>0.2666423728259915</v>
+        <v>0.240688642028811</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.05252027485468602</v>
+        <v>0.1061505345593829</v>
       </c>
       <c r="M14">
-        <v>1.489672127695485</v>
+        <v>0.06342944638901571</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05309008714855068</v>
       </c>
       <c r="O14">
-        <v>0.2961118313688758</v>
+        <v>1.513274509025024</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.059932776635776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3027342143003011</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9468103476660161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.406084912313929</v>
+        <v>1.389570874464908</v>
       </c>
       <c r="C15">
-        <v>0.2201443328816879</v>
+        <v>0.2311430966970818</v>
       </c>
       <c r="D15">
-        <v>0.1302132471556661</v>
+        <v>0.1386886607746192</v>
       </c>
       <c r="E15">
-        <v>0.03842878462717358</v>
+        <v>0.03946759271350775</v>
       </c>
       <c r="F15">
-        <v>0.4716202632484183</v>
+        <v>0.4332204997613971</v>
       </c>
       <c r="G15">
-        <v>0.2558050915223546</v>
+        <v>0.2494246773232547</v>
       </c>
       <c r="H15">
-        <v>0.1758379268621013</v>
+        <v>0.1757204643504338</v>
       </c>
       <c r="I15">
-        <v>0.002094285251279082</v>
+        <v>0.002104153057190139</v>
       </c>
       <c r="J15">
-        <v>0.2642200968509059</v>
+        <v>0.2428086448004869</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.05369265876748841</v>
+        <v>0.106083870740548</v>
       </c>
       <c r="M15">
-        <v>1.478064132837943</v>
+        <v>0.06282873959512258</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05440353168607359</v>
       </c>
       <c r="O15">
-        <v>0.2850413102468323</v>
+        <v>1.500828439053549</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.043095971527592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2912416480162676</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9376883028337915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.317710697037711</v>
+        <v>1.30367795326859</v>
       </c>
       <c r="C16">
-        <v>0.2105071052969265</v>
+        <v>0.219419552930475</v>
       </c>
       <c r="D16">
-        <v>0.1244952681482374</v>
+        <v>0.130843755575313</v>
       </c>
       <c r="E16">
-        <v>0.03838304784821744</v>
+        <v>0.03943168629772575</v>
       </c>
       <c r="F16">
-        <v>0.4732653455002662</v>
+        <v>0.4428811130357033</v>
       </c>
       <c r="G16">
-        <v>0.2591539272978949</v>
+        <v>0.236719261306952</v>
       </c>
       <c r="H16">
-        <v>0.1634834025671239</v>
+        <v>0.1632930420484229</v>
       </c>
       <c r="I16">
-        <v>0.00256941534713917</v>
+        <v>0.00242392040204642</v>
       </c>
       <c r="J16">
-        <v>0.2690469293331361</v>
+        <v>0.264496786828083</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.05287437039449117</v>
+        <v>0.1097053784496786</v>
       </c>
       <c r="M16">
-        <v>1.388773846058797</v>
+        <v>0.06518221105209498</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05370577960545297</v>
       </c>
       <c r="O16">
-        <v>0.2688183360855838</v>
+        <v>1.410544508148405</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.060118522231264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2741714177391259</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9742083600109908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.257323327180274</v>
+        <v>1.243365879350733</v>
       </c>
       <c r="C17">
-        <v>0.2035658754843581</v>
+        <v>0.2125234412227996</v>
       </c>
       <c r="D17">
-        <v>0.1317752088761495</v>
+        <v>0.13769020561746</v>
       </c>
       <c r="E17">
-        <v>0.04452219072813968</v>
+        <v>0.04567751311983237</v>
       </c>
       <c r="F17">
-        <v>0.4972486433208232</v>
+        <v>0.4681809458424198</v>
       </c>
       <c r="G17">
-        <v>0.2738519303701352</v>
+        <v>0.2436485411124707</v>
       </c>
       <c r="H17">
-        <v>0.1259261373019456</v>
+        <v>0.125691131562661</v>
       </c>
       <c r="I17">
-        <v>0.00289901065089726</v>
+        <v>0.002658838179434575</v>
       </c>
       <c r="J17">
-        <v>0.2787689346734723</v>
+        <v>0.2815874941124292</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05070026153253515</v>
+        <v>0.1137051077498503</v>
       </c>
       <c r="M17">
-        <v>1.326748253506679</v>
+        <v>0.06852262332177084</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05142147891093973</v>
       </c>
       <c r="O17">
-        <v>0.2768481130840712</v>
+        <v>1.34913365219677</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.11152594134515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2822752688065577</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.028250799175154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.215550383801599</v>
+        <v>1.199568023643224</v>
       </c>
       <c r="C18">
-        <v>0.1970188038158653</v>
+        <v>0.2079008219229905</v>
       </c>
       <c r="D18">
-        <v>0.151912278593727</v>
+        <v>0.1584342294104317</v>
       </c>
       <c r="E18">
-        <v>0.0605773149454194</v>
+        <v>0.06191182414294083</v>
       </c>
       <c r="F18">
-        <v>0.5464519204125793</v>
+        <v>0.5142994119211011</v>
       </c>
       <c r="G18">
-        <v>0.3021337206079266</v>
+        <v>0.2656612379790602</v>
       </c>
       <c r="H18">
-        <v>0.07310962556024236</v>
+        <v>0.0728643994169289</v>
       </c>
       <c r="I18">
-        <v>0.00278023137694472</v>
+        <v>0.002454021432822806</v>
       </c>
       <c r="J18">
-        <v>0.2948251525107182</v>
+        <v>0.2995852865934197</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05507675123500277</v>
+        <v>0.1192167350162077</v>
       </c>
       <c r="M18">
-        <v>1.28013669391558</v>
+        <v>0.07366268118205177</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05544095683487082</v>
       </c>
       <c r="O18">
-        <v>0.3075396007359714</v>
+        <v>1.304811550783569</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.205048947668217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3138222396377088</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.113137229899962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.189331231592377</v>
+        <v>1.169958872649431</v>
       </c>
       <c r="C19">
-        <v>0.1940774964672016</v>
+        <v>0.2084085115223502</v>
       </c>
       <c r="D19">
-        <v>0.1832556353869847</v>
+        <v>0.1911339818860114</v>
       </c>
       <c r="E19">
-        <v>0.08939804215352609</v>
+        <v>0.09098131065167436</v>
       </c>
       <c r="F19">
-        <v>0.6134719634463082</v>
+        <v>0.5751462973271799</v>
       </c>
       <c r="G19">
-        <v>0.3393303574131181</v>
+        <v>0.2967041023852772</v>
       </c>
       <c r="H19">
-        <v>0.02760165260087177</v>
+        <v>0.02738456019725533</v>
       </c>
       <c r="I19">
-        <v>0.002850259327157545</v>
+        <v>0.002566748962707699</v>
       </c>
       <c r="J19">
-        <v>0.3146354447403326</v>
+        <v>0.3179664230116188</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07618828624624641</v>
+        <v>0.1255258442206397</v>
       </c>
       <c r="M19">
-        <v>1.25227616050617</v>
+        <v>0.07991352238670935</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07590993137471358</v>
       </c>
       <c r="O19">
-        <v>0.3569346479619711</v>
+        <v>1.280364381229816</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.325380631325359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.364685350501496</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.217100760222962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.212121138837261</v>
+        <v>1.185343830999784</v>
       </c>
       <c r="C20">
-        <v>0.1963661889907797</v>
+        <v>0.2181580853976897</v>
       </c>
       <c r="D20">
-        <v>0.2441334726776461</v>
+        <v>0.2556594885928831</v>
       </c>
       <c r="E20">
-        <v>0.1521947831670829</v>
+        <v>0.1543113996538885</v>
       </c>
       <c r="F20">
-        <v>0.7323105547966975</v>
+        <v>0.6780710482820993</v>
       </c>
       <c r="G20">
-        <v>0.4035805718246834</v>
+        <v>0.3564195540880135</v>
       </c>
       <c r="H20">
-        <v>0.0006068257875551097</v>
+        <v>0.0005016806554656306</v>
       </c>
       <c r="I20">
-        <v>0.002456856153259857</v>
+        <v>0.00236402340807107</v>
       </c>
       <c r="J20">
-        <v>0.3460032027099729</v>
+        <v>0.3353928651468863</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1414425766791325</v>
+        <v>0.1333878348131705</v>
       </c>
       <c r="M20">
-        <v>1.272667788278341</v>
+        <v>0.0903955154484013</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1395379578797318</v>
       </c>
       <c r="O20">
-        <v>0.456409420133113</v>
+        <v>1.307449556308683</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.527399172560422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.467383905624196</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.37804788592635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.361206182155769</v>
+        <v>1.327627666154541</v>
       </c>
       <c r="C21">
-        <v>0.2130595793362886</v>
+        <v>0.2409093935199706</v>
       </c>
       <c r="D21">
-        <v>0.2759155394911801</v>
+        <v>0.2946257617554835</v>
       </c>
       <c r="E21">
-        <v>0.1726074027918116</v>
+        <v>0.1756404226794572</v>
       </c>
       <c r="F21">
-        <v>0.7715771705779062</v>
+        <v>0.688983829685327</v>
       </c>
       <c r="G21">
-        <v>0.4203107201642808</v>
+        <v>0.4189823290756465</v>
       </c>
       <c r="H21">
-        <v>3.886411768405651E-05</v>
+        <v>2.394385719628467E-05</v>
       </c>
       <c r="I21">
-        <v>0.001891190275076227</v>
+        <v>0.002091808792436645</v>
       </c>
       <c r="J21">
-        <v>0.3488290227351598</v>
+        <v>0.2762896312662235</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1598518211649065</v>
+        <v>0.1256848336709346</v>
       </c>
       <c r="M21">
-        <v>1.423414390790469</v>
+        <v>0.09027752411635603</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1561072942687858</v>
       </c>
       <c r="O21">
-        <v>0.5201878500825359</v>
+        <v>1.461990711203214</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.5691139056932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5341127736103033</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.348632965330467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.461325798817739</v>
+        <v>1.423448942555808</v>
       </c>
       <c r="C22">
-        <v>0.2225649881106477</v>
+        <v>0.2538595397211481</v>
       </c>
       <c r="D22">
-        <v>0.2936167544719837</v>
+        <v>0.3174041627248272</v>
       </c>
       <c r="E22">
-        <v>0.1826355235731398</v>
+        <v>0.1863419842869192</v>
       </c>
       <c r="F22">
-        <v>0.7943006712986076</v>
+        <v>0.692015814947311</v>
       </c>
       <c r="G22">
-        <v>0.4303299873399595</v>
+        <v>0.4665740914624479</v>
       </c>
       <c r="H22">
-        <v>1.089572150281271E-05</v>
+        <v>1.51997296278239E-05</v>
       </c>
       <c r="I22">
-        <v>0.001443142132424136</v>
+        <v>0.001707834732092017</v>
       </c>
       <c r="J22">
-        <v>0.3502643424773311</v>
+        <v>0.2444436425570196</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1681100457859372</v>
+        <v>0.1207714636150268</v>
       </c>
       <c r="M22">
-        <v>1.521616125435656</v>
+        <v>0.09017973181955341</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1631689146323936</v>
       </c>
       <c r="O22">
-        <v>0.5572755338715041</v>
+        <v>1.562288393790254</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.593568096157412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5730808276480204</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.323818477365108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.409551066533282</v>
+        <v>1.373788995725562</v>
       </c>
       <c r="C23">
-        <v>0.2159029687297362</v>
+        <v>0.2454254431477096</v>
       </c>
       <c r="D23">
-        <v>0.2837384500801789</v>
+        <v>0.3041845103725507</v>
       </c>
       <c r="E23">
-        <v>0.1772451327389248</v>
+        <v>0.1804830765753564</v>
       </c>
       <c r="F23">
-        <v>0.7841526223387874</v>
+        <v>0.6945090214188028</v>
       </c>
       <c r="G23">
-        <v>0.4266114006446742</v>
+        <v>0.43611195364808</v>
       </c>
       <c r="H23">
-        <v>2.997882032396149E-06</v>
+        <v>4.831952844508436E-07</v>
       </c>
       <c r="I23">
-        <v>0.001348376578249599</v>
+        <v>0.001522787815821935</v>
       </c>
       <c r="J23">
-        <v>0.350338900308202</v>
+        <v>0.2658224164309786</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.163841459274515</v>
+        <v>0.1240002054884126</v>
       </c>
       <c r="M23">
-        <v>1.46760436441042</v>
+        <v>0.09108090430330762</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1596375119255455</v>
       </c>
       <c r="O23">
-        <v>0.5369989650870579</v>
+        <v>1.50750545957618</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.585730059564099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5517159200192552</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.347442615601111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.210600874889082</v>
+        <v>1.183417068778937</v>
       </c>
       <c r="C24">
-        <v>0.1934792630558064</v>
+        <v>0.2152662239152079</v>
       </c>
       <c r="D24">
-        <v>0.2471867240313799</v>
+        <v>0.2588573556907789</v>
       </c>
       <c r="E24">
-        <v>0.1569373269237104</v>
+        <v>0.1590855704242351</v>
       </c>
       <c r="F24">
-        <v>0.7436312230467763</v>
+        <v>0.6884810670715069</v>
       </c>
       <c r="G24">
-        <v>0.410794826504123</v>
+        <v>0.3623823613539656</v>
       </c>
       <c r="H24">
-        <v>0.0004530516815914876</v>
+        <v>0.0003521647659041616</v>
       </c>
       <c r="I24">
-        <v>0.001943269728595709</v>
+        <v>0.001754200866728617</v>
       </c>
       <c r="J24">
-        <v>0.3498058973942051</v>
+        <v>0.3391987034213315</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1474361178775538</v>
+        <v>0.134931512426272</v>
       </c>
       <c r="M24">
-        <v>1.265928478200095</v>
+        <v>0.09193814665126077</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.145426993174965</v>
       </c>
       <c r="O24">
-        <v>0.4611605989748213</v>
+        <v>1.301053232475368</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.550652124084962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4723161947726311</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.398665220686098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9955805481459663</v>
+        <v>0.9782821596874385</v>
       </c>
       <c r="C25">
-        <v>0.1696719611869497</v>
+        <v>0.1805909884576238</v>
       </c>
       <c r="D25">
-        <v>0.2080589735628564</v>
+        <v>0.217041016070894</v>
       </c>
       <c r="E25">
-        <v>0.1351033647180451</v>
+        <v>0.1372206027576972</v>
       </c>
       <c r="F25">
-        <v>0.7023902662159145</v>
+        <v>0.658167681466324</v>
       </c>
       <c r="G25">
-        <v>0.3957212074216656</v>
+        <v>0.3501035420901886</v>
       </c>
       <c r="H25">
-        <v>0.001878571534634665</v>
+        <v>0.001582720312973018</v>
       </c>
       <c r="I25">
-        <v>0.003511461806320781</v>
+        <v>0.002761408964752299</v>
       </c>
       <c r="J25">
-        <v>0.3504503557578218</v>
+        <v>0.3467818862971583</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1296878320252048</v>
+        <v>0.1441100884792803</v>
       </c>
       <c r="M25">
-        <v>1.048742426458091</v>
+        <v>0.09025937266343398</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1288313331454773</v>
       </c>
       <c r="O25">
-        <v>0.3796404896522887</v>
+        <v>1.075270431422155</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.519554923182909</v>
+        <v>0.3879996544651334</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.393197470661548</v>
       </c>
     </row>
   </sheetData>
